--- a/Payroll/PrlMstEarnDed.xlsx
+++ b/Payroll/PrlMstEarnDed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>Table Name - PrlMstEarnDed</t>
   </si>
@@ -179,13 +179,103 @@
   </si>
   <si>
     <t>MinHeadValue</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>Take EarnDeductionName as String.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take EarnDeductionHeadCode as String.</t>
+  </si>
+  <si>
+    <t>Take MaxHeadValue as Decimal.</t>
+  </si>
+  <si>
+    <t>Take MinHeadValue as Decimal.</t>
+  </si>
+  <si>
+    <t>Take OrderBy as int.</t>
+  </si>
+  <si>
+    <t>Take EarnDeductionPriority as int.</t>
+  </si>
+  <si>
+    <t>For IsCalculatebetweenRange  Check.</t>
+  </si>
+  <si>
+    <t>For IsOptional  Check.</t>
+  </si>
+  <si>
+    <t>For IsPolicy  Check.</t>
+  </si>
+  <si>
+    <t>For IsLoan  Check.</t>
+  </si>
+  <si>
+    <t>For IsCommon  Check.</t>
+  </si>
+  <si>
+    <t>For IsMonthly  Check.</t>
+  </si>
+  <si>
+    <t>For IsDa  Check.</t>
+  </si>
+  <si>
+    <t>For IsImpactOnLeave  Check.</t>
+  </si>
+  <si>
+    <t>For IsEpf  Check.</t>
+  </si>
+  <si>
+    <t>For IsNPS  Check.</t>
+  </si>
+  <si>
+    <t>For IsContribution  Check.</t>
+  </si>
+  <si>
+    <t>For IsTAX  Check.</t>
+  </si>
+  <si>
+    <t>For IsDPF  Check.</t>
+  </si>
+  <si>
+    <t>For IsGPF  Check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DesignationId  (MstDesignation) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DesignationTypeId  (MstDesignationType) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get HeadTypeId  (PrlMstHeadType) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get CalculationId  (PrlMstEarnDedCalculation) in Numaric </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +290,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -236,14 +338,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,6 +349,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,602 +678,670 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="C33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="C34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="C35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="C36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Payroll/PrlMstEarnDed.xlsx
+++ b/Payroll/PrlMstEarnDed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>Table Name - PrlMstEarnDed</t>
   </si>
@@ -269,13 +269,16 @@
   </si>
   <si>
     <t xml:space="preserve">Get CalculationId  (PrlMstEarnDedCalculation) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +299,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -311,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -334,11 +345,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,12 +397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -362,6 +404,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,32 +739,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -745,7 +802,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -753,7 +810,7 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -763,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -781,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -789,7 +846,7 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -799,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -817,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -835,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -853,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -871,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -889,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -907,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -925,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -943,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -961,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -979,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -997,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1015,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1033,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1051,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1069,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1087,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1105,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1123,7 +1180,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1141,7 +1198,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1149,7 +1206,7 @@
       <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -1159,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1167,7 +1224,7 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1177,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1195,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1213,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1231,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1249,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1267,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1285,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1303,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1321,7 +1378,7 @@
         <v>40</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1339,14 +1396,25 @@
         <v>40</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Payroll/PrlMstEarnDed.xlsx
+++ b/Payroll/PrlMstEarnDed.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name - PrlMstEarnDed</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -272,6 +269,10 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : नाये Payroll मास्टर EarnDed  को रजिस्टर्ड किया जाता है|
+</t>
   </si>
 </sst>
 </file>
@@ -725,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:F39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +751,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -768,22 +769,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,19 +792,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,17 +812,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,17 +830,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -847,17 +848,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,17 +866,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,17 +884,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,17 +902,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -919,17 +920,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,17 +938,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,17 +956,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,17 +974,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,17 +992,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,17 +1010,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,17 +1028,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,17 +1046,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,17 +1064,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,17 +1082,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,17 +1100,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,17 +1118,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,17 +1136,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,17 +1154,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,17 +1172,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,17 +1190,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,17 +1208,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,17 +1226,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,17 +1244,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,17 +1262,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,17 +1280,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,17 +1298,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,17 +1316,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,17 +1334,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,17 +1352,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,17 +1370,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,22 +1388,22 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
